--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3497.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3497.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9085429557816206</v>
+        <v>2.667632579803467</v>
       </c>
       <c r="B1">
-        <v>1.755839316328643</v>
+        <v>3.2921302318573</v>
       </c>
       <c r="C1">
-        <v>6.30729206768417</v>
+        <v>2.923240661621094</v>
       </c>
       <c r="D1">
-        <v>3.96034773159859</v>
+        <v>2.529649257659912</v>
       </c>
       <c r="E1">
-        <v>1.726239720411956</v>
+        <v>1.682997345924377</v>
       </c>
     </row>
   </sheetData>
